--- a/excel/datos.xlsx
+++ b/excel/datos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\Semestre 9\PROYECTO_ESTADISTICA_DESCRIPTIVA_ADI\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E48619-043F-4A54-99B9-49A8E5BD95F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF542B78-391A-4DC4-902F-D1F1BFA6332D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Punto 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Punto 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="209">
   <si>
     <t>ID</t>
   </si>
@@ -622,6 +623,45 @@
   </si>
   <si>
     <t>CA_p</t>
+  </si>
+  <si>
+    <t>Leptocurtica</t>
+  </si>
+  <si>
+    <t>Asimetrica hacia la derecha (+)</t>
+  </si>
+  <si>
+    <t>clases</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Ls</t>
+  </si>
+  <si>
+    <t>dato MIN</t>
+  </si>
+  <si>
+    <t>dato MAX</t>
+  </si>
+  <si>
+    <t>son muy grandes y alteran los datos de mi tabla agrupada</t>
+  </si>
+  <si>
+    <t>Fi</t>
+  </si>
+  <si>
+    <t>Fs</t>
   </si>
 </sst>
 </file>
@@ -631,7 +671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,6 +697,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -845,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -856,11 +903,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -874,6 +917,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,11 +930,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,2638 +951,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Tiempo de juego semanal (min)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$73</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$73</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>0.18333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>559</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>572</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2325</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9629-4923-96AD-E1F1FE03EBA7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="133616064"/>
-        <c:axId val="135350080"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="133616064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="135350080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="135350080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="133616064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Tiempo de juego promedio diario (min)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$73</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$2:$I$73</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>1.6666666666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>1.6666666666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>3.3333333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="0.0">
-                  <c:v>0.81666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="0.00">
-                  <c:v>0.23333333333333334</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="0.00">
-                  <c:v>0.51666666666666672</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-39F5-41C4-869C-F3AD357635F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="184833136"/>
-        <c:axId val="19225536"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="184833136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="19225536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="19225536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="184833136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>141744</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38016</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>153691</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>117445</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABB513B-91DD-42EB-8B36-AF2AE561B7B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123502</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>80721</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>132704</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>156921</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE875D6B-71ED-454F-BE03-F5521DC87A14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3824,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I73"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5876,8 +3292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB950078-9EB8-4250-9292-26284B836C60}">
   <dimension ref="B2:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="T11" sqref="T8:T11"/>
+    <sheetView topLeftCell="D44" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7:Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5895,32 +3311,32 @@
   <sheetData>
     <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18"/>
-      <c r="C4" s="26" t="str">
+      <c r="B4" s="16"/>
+      <c r="C4" s="21" t="str">
         <f>Sheet1!H1</f>
         <v>Tiempo de juego semana (min)</v>
       </c>
-      <c r="D4" s="26" t="str">
+      <c r="D4" s="21" t="str">
         <f>Sheet1!I1</f>
         <v>Tiempo de juego promedio diario (min)</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <f>SUM(Sheet1!H2:H73)/Sheet1!A73</f>
         <v>115.0789351851852</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <f>SUM(Sheet1!I2:I73)/Sheet1!A73</f>
         <v>16.53263888888889</v>
       </c>
@@ -5938,14 +3354,14 @@
       </c>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <f>MEDIAN(Q7:Q78)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <f>MEDIAN(R7:R78)</f>
         <v>0</v>
       </c>
@@ -5981,14 +3397,14 @@
       </c>
     </row>
     <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <f>_xlfn.MODE.SNGL(Sheet1!H2:H73)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <f>_xlfn.MODE.SNGL(Sheet1!I2:I73)</f>
         <v>0</v>
       </c>
@@ -6010,7 +3426,7 @@
       <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
@@ -6046,7 +3462,7 @@
       <c r="R8" s="2">
         <v>0</v>
       </c>
-      <c r="T8" s="28">
+      <c r="T8">
         <v>1</v>
       </c>
       <c r="U8">
@@ -6058,16 +3474,16 @@
         <v>-2969247.3128258609</v>
       </c>
       <c r="X8">
-        <f t="shared" ref="X8:X43" si="1">U8*(T8-$C$5)^4</f>
+        <f t="shared" ref="X8:X41" si="1">U8*(T8-$C$5)^4</f>
         <v>338728571.74864668</v>
       </c>
     </row>
     <row r="9" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="F9" s="2">
         <v>4</v>
       </c>
@@ -6103,12 +3519,12 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
-      <c r="C10" s="25" t="str">
+      <c r="B10" s="22"/>
+      <c r="C10" s="20" t="str">
         <f>Sheet1!H1</f>
         <v>Tiempo de juego semana (min)</v>
       </c>
-      <c r="D10" s="25" t="str">
+      <c r="D10" s="20" t="str">
         <f>Sheet1!I1</f>
         <v>Tiempo de juego promedio diario (min)</v>
       </c>
@@ -6147,14 +3563,14 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <f>C13-C12</f>
         <v>2325</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <f>D13-D12</f>
         <v>332</v>
       </c>
@@ -6194,14 +3610,14 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <f>MIN(G6:G77)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <f>MIN(H6:H77)</f>
         <v>0</v>
       </c>
@@ -6240,14 +3656,14 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <f>MAX(G6:G77)</f>
         <v>2325</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <f>MAX(H6:H77)</f>
         <v>332</v>
       </c>
@@ -6287,9 +3703,8 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="F14" s="2">
         <v>9</v>
       </c>
@@ -6326,14 +3741,14 @@
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <f>C20-C18</f>
         <v>-140</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <f>D20-D18</f>
         <v>-19.775000000000002</v>
       </c>
@@ -6372,9 +3787,8 @@
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="F16" s="2">
         <v>11</v>
       </c>
@@ -6412,14 +3826,14 @@
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <f>1*((72+1)/4)</f>
         <v>18.25</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <f>1*((72+1)/4)</f>
         <v>18.25</v>
       </c>
@@ -6458,14 +3872,14 @@
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <f>G23+(C17-$F$23)*(G24-G23)</f>
         <v>140</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <f>H23+(D17-$F$23)*(H24-H23)</f>
         <v>19.775000000000002</v>
       </c>
@@ -6506,14 +3920,14 @@
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <f>3*((72+1)/4)</f>
         <v>54.75</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <f>3*((72+1)/4)</f>
         <v>54.75</v>
       </c>
@@ -6553,14 +3967,14 @@
       </c>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <f>G59+(C19-$F$59)*(G60-G59)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <f>H59+(D19-$F$59)*(H60-H59)</f>
         <v>0</v>
       </c>
@@ -6600,14 +4014,14 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="18">
         <f>_xlfn.STDEV.S(G6:G77)</f>
         <v>316.86513675442347</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <f>_xlfn.STDEV.S(H6:H77)</f>
         <v>45.319786055520538</v>
       </c>
@@ -6646,14 +4060,14 @@
       </c>
     </row>
     <row r="22" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="18">
         <f>_xlfn.VAR.S(G6:G77)</f>
         <v>100403.51489039949</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <f>_xlfn.VAR.S(H6:H77)</f>
         <v>2053.8830081181536</v>
       </c>
@@ -6692,7 +4106,7 @@
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <v>18</v>
       </c>
       <c r="G23" s="3">
@@ -6730,11 +4144,11 @@
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="F24" s="2">
         <v>19</v>
       </c>
@@ -6746,7 +4160,7 @@
         <f>(1*60)+19</f>
         <v>79</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="7">
         <v>18</v>
       </c>
       <c r="Q24" s="2">
@@ -6820,6 +4234,9 @@
       <c r="B26" t="s">
         <v>180</v>
       </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
       <c r="F26" s="2">
         <v>21</v>
       </c>
@@ -6861,6 +4278,9 @@
       <c r="B27" t="s">
         <v>181</v>
       </c>
+      <c r="C27" t="s">
+        <v>196</v>
+      </c>
       <c r="F27" s="2">
         <v>22</v>
       </c>
@@ -7308,10 +4728,10 @@
       <c r="P39" s="2">
         <v>33</v>
       </c>
-      <c r="Q39" s="7">
-        <v>0</v>
-      </c>
-      <c r="R39" s="7">
+      <c r="Q39" s="6">
+        <v>0</v>
+      </c>
+      <c r="R39" s="6">
         <v>0</v>
       </c>
       <c r="T39" s="2">
@@ -7344,10 +4764,10 @@
       <c r="P40" s="2">
         <v>34</v>
       </c>
-      <c r="Q40" s="7">
-        <v>0</v>
-      </c>
-      <c r="R40" s="7">
+      <c r="Q40" s="6">
+        <v>0</v>
+      </c>
+      <c r="R40" s="6">
         <v>0</v>
       </c>
       <c r="T40" s="2">
@@ -7380,10 +4800,10 @@
       <c r="P41" s="2">
         <v>35</v>
       </c>
-      <c r="Q41" s="7">
-        <v>0</v>
-      </c>
-      <c r="R41" s="7">
+      <c r="Q41" s="6">
+        <v>0</v>
+      </c>
+      <c r="R41" s="6">
         <v>0</v>
       </c>
       <c r="T41" s="2">
@@ -7420,7 +4840,7 @@
       <c r="Q42" s="2">
         <v>1</v>
       </c>
-      <c r="R42" s="7">
+      <c r="R42" s="6">
         <v>0</v>
       </c>
       <c r="W42">
@@ -7449,14 +4869,14 @@
       <c r="Q43" s="2">
         <v>1</v>
       </c>
-      <c r="R43" s="7">
-        <v>0</v>
-      </c>
-      <c r="W43" s="29">
+      <c r="R43" s="6">
+        <v>0</v>
+      </c>
+      <c r="W43" s="23">
         <f>72*(C21)^3</f>
         <v>2290634890.298728</v>
       </c>
-      <c r="X43" s="29">
+      <c r="X43" s="23">
         <f>72*(C21)^4</f>
         <v>725822337768.96045</v>
       </c>
@@ -7497,7 +4917,7 @@
       <c r="Q45" s="2">
         <v>3</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7517,7 +4937,7 @@
       <c r="Q46" s="2">
         <v>5</v>
       </c>
-      <c r="R46" s="7">
+      <c r="R46" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7767,12 +5187,12 @@
       <c r="Q58" s="2">
         <v>49</v>
       </c>
-      <c r="R58" s="7">
+      <c r="R58" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F59" s="9">
+      <c r="F59" s="7">
         <v>54</v>
       </c>
       <c r="G59" s="2">
@@ -7801,7 +5221,7 @@
       <c r="H60" s="2">
         <v>0</v>
       </c>
-      <c r="P60" s="9">
+      <c r="P60" s="7">
         <v>54</v>
       </c>
       <c r="Q60" s="2">
@@ -8176,8 +5596,6 @@
       </c>
     </row>
     <row r="78" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
       <c r="P78" s="2">
         <v>72</v>
       </c>
@@ -8201,6 +5619,857 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB5DD4D-CA9F-48F4-86B1-6284E0277612}">
+  <dimension ref="A3:N75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3">
+        <f>3.3*LOG(72+1)</f>
+        <v>6.1489654383975045</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4">
+        <f>(MAX(A4:A75))-(MIN(A4:A75))</f>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>(4*60)+33</f>
+        <v>273</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="30">
+        <f>E4/F3</f>
+        <v>95.333333333333329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7">
+        <f>MIN(A4:A75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8">
+        <f>MAX(A4:A75)</f>
+        <v>572</v>
+      </c>
+      <c r="H8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f>(2*60)+29</f>
+        <v>149</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="30">
+        <f>E7</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="30">
+        <f>I9+E6-E5</f>
+        <v>94.333333333333329</v>
+      </c>
+      <c r="K9" s="29">
+        <f>I9-(E5/2)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="L9" s="29">
+        <f>J9+(E5/2)</f>
+        <v>94.833333333333329</v>
+      </c>
+      <c r="M9" s="30">
+        <f>COUNTIFS(A4:A75,"&gt;=0",A4:A75,"&gt;=94")</f>
+        <v>15</v>
+      </c>
+      <c r="N9" s="30">
+        <f>M9</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="30">
+        <f>I9+$E$6</f>
+        <v>95.333333333333329</v>
+      </c>
+      <c r="J10" s="30">
+        <f>J9+$E$6</f>
+        <v>189.66666666666666</v>
+      </c>
+      <c r="K10" s="29">
+        <f>K9+$E$6</f>
+        <v>94.833333333333329</v>
+      </c>
+      <c r="L10" s="29">
+        <f>L9+$E$6</f>
+        <v>190.16666666666666</v>
+      </c>
+      <c r="M10" s="30">
+        <f>COUNTIFS(A4:A75,"&gt;=95",A4:A75,"&gt;=190")</f>
+        <v>11</v>
+      </c>
+      <c r="N10" s="30">
+        <f>M10+N9</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f>(5*60)+53</f>
+        <v>353</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="30">
+        <f t="shared" ref="I11:I14" si="0">I10+$E$6</f>
+        <v>190.66666666666666</v>
+      </c>
+      <c r="J11" s="30">
+        <f t="shared" ref="J11:J14" si="1">J10+$E$6</f>
+        <v>285</v>
+      </c>
+      <c r="K11" s="29">
+        <f t="shared" ref="K11:K14" si="2">K10+$E$6</f>
+        <v>190.16666666666666</v>
+      </c>
+      <c r="L11" s="29">
+        <f t="shared" ref="L11:L14" si="3">L10+$E$6</f>
+        <v>285.5</v>
+      </c>
+      <c r="M11" s="30">
+        <f>COUNTIFS(A4:A75,"&gt;=191",A4:A75,"&gt;=285")</f>
+        <v>7</v>
+      </c>
+      <c r="N11" s="30">
+        <f t="shared" ref="N11:N14" si="4">M11+N10</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f>(3*60)+49</f>
+        <v>229</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" s="30">
+        <f t="shared" si="0"/>
+        <v>286</v>
+      </c>
+      <c r="J12" s="30">
+        <f t="shared" si="1"/>
+        <v>380.33333333333331</v>
+      </c>
+      <c r="K12" s="29">
+        <f t="shared" si="2"/>
+        <v>285.5</v>
+      </c>
+      <c r="L12" s="29">
+        <f t="shared" si="3"/>
+        <v>380.83333333333331</v>
+      </c>
+      <c r="M12" s="30">
+        <f>COUNTIFS(A4:A75,"&gt;=28",A4:A75,"&gt;=380")</f>
+        <v>3</v>
+      </c>
+      <c r="N12" s="30">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" si="0"/>
+        <v>381.33333333333331</v>
+      </c>
+      <c r="J13" s="30">
+        <f t="shared" si="1"/>
+        <v>475.66666666666663</v>
+      </c>
+      <c r="K13" s="29">
+        <f t="shared" si="2"/>
+        <v>380.83333333333331</v>
+      </c>
+      <c r="L13" s="29">
+        <f t="shared" si="3"/>
+        <v>476.16666666666663</v>
+      </c>
+      <c r="M13" s="30">
+        <f>COUNTIFS(A4:A75,"&gt;=381",A4:A75,"&gt;=476")</f>
+        <v>2</v>
+      </c>
+      <c r="N13" s="30">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14" s="30">
+        <f t="shared" si="0"/>
+        <v>476.66666666666663</v>
+      </c>
+      <c r="J14" s="30">
+        <f t="shared" si="1"/>
+        <v>571</v>
+      </c>
+      <c r="K14" s="29">
+        <f t="shared" si="2"/>
+        <v>476.16666666666663</v>
+      </c>
+      <c r="L14" s="29">
+        <f t="shared" si="3"/>
+        <v>571.5</v>
+      </c>
+      <c r="M14" s="30">
+        <f>COUNTIFS(A4:A75,"&gt;=477",A4:A75,"&gt;=571")</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="30">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="M15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>(9*60)+19</f>
+        <v>559</v>
+      </c>
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f>(9*60)+32</f>
+        <v>572</v>
+      </c>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f>(3*60)+7</f>
+        <v>187</v>
+      </c>
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f>(6*60)+3</f>
+        <v>363</v>
+      </c>
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>51</v>
+      </c>
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <f>(4*60)+48</f>
+        <v>288</v>
+      </c>
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <f>60+43</f>
+        <v>103</v>
+      </c>
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>37</v>
+      </c>
+      <c r="B45" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <f>(6*60)+31</f>
+        <v>391</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="28">
+        <f>(38*60)+45</f>
+        <v>2325</v>
+      </c>
+      <c r="D48" s="28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <f>(2*60)+51</f>
+        <v>171</v>
+      </c>
+      <c r="B50" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <f>(3*60)+30</f>
+        <v>210</v>
+      </c>
+      <c r="B51" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <f>(5*60)+55</f>
+        <v>355</v>
+      </c>
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>49</v>
+      </c>
+      <c r="B54" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <f>(3*60)+33</f>
+        <v>213</v>
+      </c>
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="28">
+        <f>(17*60)+20</f>
+        <v>1040</v>
+      </c>
+      <c r="D56" s="28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>21</v>
+      </c>
+      <c r="B59" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <f>60+26</f>
+        <v>86</v>
+      </c>
+      <c r="B61" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>5</v>
+      </c>
+      <c r="B66" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <f>60+9</f>
+        <v>69</v>
+      </c>
+      <c r="B69" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>35</v>
+      </c>
+      <c r="B70" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>26</v>
+      </c>
+      <c r="B73" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>17</v>
+      </c>
+      <c r="B75" s="2">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>